--- a/static/Form Template.xlsx
+++ b/static/Form Template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Informed 365/Informed 365/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Example" sheetId="2" r:id="rId3"/>
     <sheet name="Data" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>section_name</t>
   </si>
@@ -195,6 +190,12 @@
   </si>
   <si>
     <t>3. Upload the form into the web application form import module</t>
+  </si>
+  <si>
+    <t>question_description</t>
+  </si>
+  <si>
+    <t>answer_parameter</t>
   </si>
 </sst>
 </file>
@@ -217,12 +218,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,9 +244,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,74 +551,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -636,7 +644,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -672,21 +680,21 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -733,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1039,10 +1047,10 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="104.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
